--- a/RELATORIO_PAGAMENTO.xlsx
+++ b/RELATORIO_PAGAMENTO.xlsx
@@ -626,14 +626,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.8984375" customWidth="1"/>
-    <col min="2" max="2" width="6.5" customWidth="1"/>
+    <col min="2" max="2" width="8.296875" customWidth="1"/>
     <col min="3" max="3" width="14.8984375" customWidth="1"/>
     <col min="5" max="5" width="15.796875" customWidth="1"/>
   </cols>
